--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/175.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/175.xlsx
@@ -479,13 +479,13 @@
         <v>-2.672541556545355</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.04172008073861</v>
+        <v>-14.1646829890281</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.218948477615156</v>
+        <v>-1.110570394691347</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.06404599932496</v>
+        <v>-11.60210036921137</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-2.635690920497109</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.30504556779425</v>
+        <v>-14.44451786996715</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.076569684211385</v>
+        <v>-0.9532663760480088</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.98733819697529</v>
+        <v>-11.51923918452609</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-2.521563334397412</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.81641782448922</v>
+        <v>-14.91462318810501</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.9091191308657085</v>
+        <v>-0.80953907545154</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.61509784257933</v>
+        <v>-11.14627875347384</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.320153000574339</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.40606895987488</v>
+        <v>-15.51798196456596</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.872630882845818</v>
+        <v>-0.7357115797270467</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.54477908401642</v>
+        <v>-11.11141395100632</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.019085502970718</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.01048821286601</v>
+        <v>-16.09625588878216</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6944839180784513</v>
+        <v>-0.5486618490273064</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.16719707006104</v>
+        <v>-10.71740109698458</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-1.614931028642771</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.72442457912817</v>
+        <v>-16.79072400071867</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6230130368654687</v>
+        <v>-0.4608517738678497</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.01231512744342</v>
+        <v>-10.57566382642005</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-1.108015266221362</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.3984686986316</v>
+        <v>-17.44492018911404</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4915008548203304</v>
+        <v>-0.3114162292323883</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.567477953790092</v>
+        <v>-10.1511197221714</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.506461372771276</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.15159032729905</v>
+        <v>-18.22033800952095</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5179603988634588</v>
+        <v>-0.3482579694290055</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.411862842213337</v>
+        <v>-9.98691605993047</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1713934677174488</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.75031442855402</v>
+        <v>-18.7804921866042</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.3405073261467036</v>
+        <v>-0.1651752064903081</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.134227468151694</v>
+        <v>-9.687285617094728</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.8949228755793535</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.39806920395126</v>
+        <v>-19.42109856464986</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1562724405579344</v>
+        <v>0.06006477159874712</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.817681770044441</v>
+        <v>-9.330101410966757</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>1.623891688407928</v>
       </c>
       <c r="E12" t="n">
-        <v>-20.00121850356674</v>
+        <v>-20.02251968029023</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3368283890481786</v>
+        <v>-0.132732480048511</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.315330110007412</v>
+        <v>-8.805047697802175</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>2.312539845940641</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.83419008726588</v>
+        <v>-20.784465521073</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1162623630736196</v>
+        <v>0.0787867646624154</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.681217514171252</v>
+        <v>-8.178371529980115</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>2.909371399326142</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.63158988414405</v>
+        <v>-21.5682885999043</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1006378181052562</v>
+        <v>0.3075223876102116</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.381835825089501</v>
+        <v>-7.882956808659408</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>3.366007656890669</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.4705577425447</v>
+        <v>-22.43414804834185</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2427416731493509</v>
+        <v>0.4801836774868949</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.746885321871471</v>
+        <v>-7.201332245810624</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>3.64632773895208</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.47270806356462</v>
+        <v>-23.48887705757415</v>
       </c>
       <c r="F16" t="n">
-        <v>0.523100246202073</v>
+        <v>0.7537080684562359</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.321542587149474</v>
+        <v>-6.829379922077186</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>3.735094987127962</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.16632517581642</v>
+        <v>-24.16019797808649</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6516273831992978</v>
+        <v>0.8883362185777051</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.175393210527286</v>
+        <v>-6.676383271068776</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>3.639037621180664</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.0829303900685</v>
+        <v>-25.06079130596315</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9425252600396093</v>
+        <v>1.197772796241901</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.640284608780258</v>
+        <v>-6.136548347995884</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>3.385859905461611</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.89551725824307</v>
+        <v>-25.85927776397718</v>
       </c>
       <c r="F19" t="n">
-        <v>1.045024898987483</v>
+        <v>1.294577283453623</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.50111342957271</v>
+        <v>-6.035593600783335</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>3.015366225433094</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.66285712779664</v>
+        <v>-26.61504403781866</v>
       </c>
       <c r="F20" t="n">
-        <v>1.196110073781002</v>
+        <v>1.437191738308545</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.170676798150385</v>
+        <v>-5.72563333100547</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.570392181304334</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.27485682413312</v>
+        <v>-27.25976139895662</v>
       </c>
       <c r="F21" t="n">
-        <v>1.429990971745596</v>
+        <v>1.691810843974434</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.903659281693383</v>
+        <v>-5.469757364266775</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.090885311564173</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.89549744034515</v>
+        <v>-27.83647733913465</v>
       </c>
       <c r="F22" t="n">
-        <v>1.557038678521706</v>
+        <v>1.808541816111264</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.325071142208982</v>
+        <v>-4.793029322680797</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.611949575781952</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.29261317014038</v>
+        <v>-28.24617477196078</v>
       </c>
       <c r="F23" t="n">
-        <v>1.716110158048678</v>
+        <v>1.994269224223989</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.301452627882508</v>
+        <v>-4.802272488487056</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.16251080621806</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.61772123430613</v>
+        <v>-28.54446979990667</v>
       </c>
       <c r="F24" t="n">
-        <v>1.631612435508177</v>
+        <v>1.874893606913131</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.054125934899461</v>
+        <v>-4.509436950826169</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.766002575516776</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.90702185019975</v>
+        <v>-28.83593064576917</v>
       </c>
       <c r="F25" t="n">
-        <v>1.947948656769963</v>
+        <v>2.171355712461176</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.840511921733859</v>
+        <v>-4.232456191906612</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.4416102244358007</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.9670631510319</v>
+        <v>-28.86021686754058</v>
       </c>
       <c r="F26" t="n">
-        <v>1.877485882875793</v>
+        <v>2.071697103229957</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.973673733937054</v>
+        <v>-4.342614828016895</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.2026596080800489</v>
       </c>
       <c r="E27" t="n">
-        <v>-29.05323668833615</v>
+        <v>-29.01272910334384</v>
       </c>
       <c r="F27" t="n">
-        <v>1.799979450052775</v>
+        <v>2.022391490728017</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.687331978485664</v>
+        <v>-4.029761159311009</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.05604074596899675</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.89018514874529</v>
+        <v>-28.82273360450472</v>
       </c>
       <c r="F28" t="n">
-        <v>1.989163226115716</v>
+        <v>2.226055353733908</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.7925810010303</v>
+        <v>-4.081462663232985</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.005118046377468629</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.90927372628853</v>
+        <v>-28.82374171182353</v>
       </c>
       <c r="F29" t="n">
-        <v>1.907886210074281</v>
+        <v>2.085313098185352</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.746417541210374</v>
+        <v>-4.012924457856549</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.0489254961416062</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.71755004347429</v>
+        <v>-28.63597190446749</v>
       </c>
       <c r="F30" t="n">
-        <v>1.946115734372121</v>
+        <v>2.143835691887868</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.728297794077425</v>
+        <v>-3.992330265486514</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.1807575118115269</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.32806712623578</v>
+        <v>-28.21782993630844</v>
       </c>
       <c r="F31" t="n">
-        <v>1.837816205265363</v>
+        <v>2.024695736028161</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.038559186820649</v>
+        <v>-4.285807325986646</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.3880838887836723</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.23738983675398</v>
+        <v>-28.10572054707475</v>
       </c>
       <c r="F32" t="n">
-        <v>1.793852252322847</v>
+        <v>2.012938848076291</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.238164435945604</v>
+        <v>-4.52158660786329</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6547856972558342</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.66160345007771</v>
+        <v>-27.53003889882121</v>
       </c>
       <c r="F33" t="n">
-        <v>1.75572746644774</v>
+        <v>1.944125704340179</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.573131004151166</v>
+        <v>-4.796642798265114</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9596795647197863</v>
       </c>
       <c r="E34" t="n">
-        <v>-27.08068488068749</v>
+        <v>-26.96003931000098</v>
       </c>
       <c r="F34" t="n">
-        <v>1.832500730311622</v>
+        <v>2.018332876847082</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.478944977507789</v>
+        <v>-4.692611359884758</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.278326648225241</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.80807695091707</v>
+        <v>-26.73208922522369</v>
       </c>
       <c r="F35" t="n">
-        <v>1.628967790334149</v>
+        <v>1.818387227848242</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.770314177250403</v>
+        <v>-5.000254292059637</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.586079069935058</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.9101151759116</v>
+        <v>-25.84961564447998</v>
       </c>
       <c r="F36" t="n">
-        <v>1.556776832464871</v>
+        <v>1.740723687391122</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.961828383219172</v>
+        <v>-5.214431274247434</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.86226204662961</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.35339118217288</v>
+        <v>-25.35411125882918</v>
       </c>
       <c r="F37" t="n">
-        <v>1.438186753324517</v>
+        <v>1.626637360428322</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.186714869131499</v>
+        <v>-5.459990506346848</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>2.091111160260271</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.97781229055229</v>
+        <v>-24.88857515438308</v>
       </c>
       <c r="F38" t="n">
-        <v>1.44693241162279</v>
+        <v>1.614828103265085</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.329905385311458</v>
+        <v>-5.618957247451086</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>2.264411577169178</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.46139949726324</v>
+        <v>-24.41829963630828</v>
       </c>
       <c r="F39" t="n">
-        <v>1.364450903719915</v>
+        <v>1.512184448985952</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.452108940036129</v>
+        <v>-5.741095340661548</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>2.382451124426141</v>
       </c>
       <c r="E40" t="n">
-        <v>-24.00542077389161</v>
+        <v>-23.95187325526895</v>
       </c>
       <c r="F40" t="n">
-        <v>1.31472633752704</v>
+        <v>1.509932572897175</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.537261277718716</v>
+        <v>-5.856045759611903</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>2.452468073202852</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.20062382590786</v>
+        <v>-23.15011372154449</v>
       </c>
       <c r="F41" t="n">
-        <v>1.427922387896603</v>
+        <v>1.593330541998971</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.613929803159864</v>
+        <v>-5.971022363167942</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>2.485680905459427</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.76133778865943</v>
+        <v>-22.74671368638522</v>
       </c>
       <c r="F42" t="n">
-        <v>1.52794758160739</v>
+        <v>1.713805912748534</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.661559600898062</v>
+        <v>-6.037243230941392</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>2.494990380283867</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.89723270880267</v>
+        <v>-21.92348277600033</v>
       </c>
       <c r="F43" t="n">
-        <v>1.742792271240115</v>
+        <v>1.899768982312411</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.610394881392597</v>
+        <v>-6.024962650875853</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>2.491780097968502</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.61095641486548</v>
+        <v>-21.66288048793577</v>
       </c>
       <c r="F44" t="n">
-        <v>1.709118868331196</v>
+        <v>1.863529488046513</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.796986381492877</v>
+        <v>-6.211698166307392</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>2.482803515188805</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.06293880251652</v>
+        <v>-21.11640776732213</v>
       </c>
       <c r="F45" t="n">
-        <v>1.752349652314575</v>
+        <v>1.929436140551762</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.920734827952872</v>
+        <v>-6.317824373142424</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>2.468191451239175</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.5285240928201</v>
+        <v>-20.62360039605671</v>
       </c>
       <c r="F46" t="n">
-        <v>1.924120665598021</v>
+        <v>2.088376697050316</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.842639241501976</v>
+        <v>-6.254195781331635</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>2.442509617273063</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.94852198462879</v>
+        <v>-20.09139828554055</v>
       </c>
       <c r="F47" t="n">
-        <v>1.822445841729177</v>
+        <v>1.967744218666653</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.206186306811025</v>
+        <v>-6.635888778379317</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>2.394305921835871</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.45808432017773</v>
+        <v>-19.63395322425064</v>
       </c>
       <c r="F48" t="n">
-        <v>1.83794712829378</v>
+        <v>2.003512390030248</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.219134594321493</v>
+        <v>-6.672337749490682</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>2.309794823995887</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.81601160421381</v>
+        <v>-18.9543186914338</v>
       </c>
       <c r="F49" t="n">
-        <v>1.86585991795234</v>
+        <v>2.020322906879024</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.683898252899926</v>
+        <v>-7.124323320495591</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>2.175141879609821</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.23642844971343</v>
+        <v>-18.40538461788591</v>
       </c>
       <c r="F50" t="n">
-        <v>1.865755179529606</v>
+        <v>2.004245558989385</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.65214941850874</v>
+        <v>-7.11809138434293</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>1.980061932992122</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.39671433005081</v>
+        <v>-17.56535628295508</v>
       </c>
       <c r="F51" t="n">
-        <v>1.897648029252051</v>
+        <v>2.037133423727801</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.997877859650201</v>
+        <v>-7.497087367005216</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>1.717815212415099</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.02789106669654</v>
+        <v>-17.23175131424506</v>
       </c>
       <c r="F52" t="n">
-        <v>1.773428259889754</v>
+        <v>1.932787770079244</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.9004842188106</v>
+        <v>-7.413754859417629</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>1.389362563542406</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.4135216635457</v>
+        <v>-16.68716388524062</v>
       </c>
       <c r="F53" t="n">
-        <v>1.93480398471687</v>
+        <v>2.041899021962189</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.033266354231387</v>
+        <v>-7.518336174517337</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>1.001907342425073</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.11305331332809</v>
+        <v>-16.34016549072351</v>
       </c>
       <c r="F54" t="n">
-        <v>1.659368117532637</v>
+        <v>1.78424250203702</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.382228594174753</v>
+        <v>-7.914574720022177</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.568631640290773</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.4914831436143</v>
+        <v>-15.75990153647537</v>
       </c>
       <c r="F55" t="n">
-        <v>1.711292190602922</v>
+        <v>1.863450934229463</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.516529436725179</v>
+        <v>-8.068095063144256</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1050800146014979</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.09451142915033</v>
+        <v>-15.37028769620845</v>
       </c>
       <c r="F56" t="n">
-        <v>1.608622351718106</v>
+        <v>1.70422234706839</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.749598611913586</v>
+        <v>-8.282586260600254</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3694553164379682</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.39886500995805</v>
+        <v>-14.70836704913646</v>
       </c>
       <c r="F57" t="n">
-        <v>1.518049800659045</v>
+        <v>1.612157273485372</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.090888762391701</v>
+        <v>-8.59816312829722</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.8353636948634078</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.17865247616022</v>
+        <v>-14.4967430660028</v>
       </c>
       <c r="F58" t="n">
-        <v>1.396919814767396</v>
+        <v>1.490686887719838</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.130152578614037</v>
+        <v>-8.637217467674089</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-1.27426435506188</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.72267375278859</v>
+        <v>-13.99732408180232</v>
       </c>
       <c r="F59" t="n">
-        <v>1.436956076857394</v>
+        <v>1.546460097825591</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.298715977701262</v>
+        <v>-8.808032742850088</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.672998275031126</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.60875762576273</v>
+        <v>-13.8634029160343</v>
       </c>
       <c r="F60" t="n">
-        <v>1.32436227241855</v>
+        <v>1.411216609470561</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.198009984242704</v>
+        <v>-8.719345483400236</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-2.02089837305279</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.31844890255029</v>
+        <v>-13.56158605862399</v>
       </c>
       <c r="F61" t="n">
-        <v>1.2710373229442</v>
+        <v>1.332715161631571</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.473524405243987</v>
+        <v>-8.934635311329579</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-2.311756644556669</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.96987943169218</v>
+        <v>-13.24882403603799</v>
       </c>
       <c r="F62" t="n">
-        <v>1.272412014742581</v>
+        <v>1.333526884407758</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.742047536527789</v>
+        <v>-9.235967753534746</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-2.542382765332226</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.57081294877353</v>
+        <v>-12.81444761235521</v>
       </c>
       <c r="F63" t="n">
-        <v>1.22810766192618</v>
+        <v>1.286905193988372</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.710324886742287</v>
+        <v>-9.219550005771222</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.713152737521306</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.261900063223</v>
+        <v>-12.55807413810853</v>
       </c>
       <c r="F64" t="n">
-        <v>1.16614179257629</v>
+        <v>1.225724862808986</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.888157636241452</v>
+        <v>-9.406769936407905</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.825207232159181</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.02018996815905</v>
+        <v>-12.31093073736526</v>
       </c>
       <c r="F65" t="n">
-        <v>1.17782012671111</v>
+        <v>1.221666248928051</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.075154997729825</v>
+        <v>-9.580766641174444</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.881140405912169</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.78037825700716</v>
+        <v>-12.0978927855247</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9901550577778088</v>
+        <v>1.027245551728419</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.079331442336336</v>
+        <v>-9.591554698716028</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.884559034107192</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.6075991364049</v>
+        <v>-11.91118345469884</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9665103588456515</v>
+        <v>0.9955098096400747</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.160569181469247</v>
+        <v>-9.652669568381205</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.841308282213418</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.44099958274393</v>
+        <v>-11.7871993467877</v>
       </c>
       <c r="F68" t="n">
-        <v>0.886765142236698</v>
+        <v>0.9073986115152582</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.071266583785834</v>
+        <v>-9.58354220937689</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.759181957482814</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.28199356473117</v>
+        <v>-11.61436785697407</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6552539510864559</v>
+        <v>0.6962066743753751</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.021044510084971</v>
+        <v>-9.536449196055202</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.647769158730958</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.16494837732614</v>
+        <v>-11.50619925089573</v>
       </c>
       <c r="F70" t="n">
-        <v>0.7667480020865951</v>
+        <v>0.8340555309959088</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.937057387355299</v>
+        <v>-9.470804389606787</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.516695988869285</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.00115057647331</v>
+        <v>-11.33719071351189</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6727321753801602</v>
+        <v>0.742566518737927</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.630344008682183</v>
+        <v>-9.117024182217666</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.376486636725979</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.96598465104043</v>
+        <v>-11.27411199842045</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6967172741862023</v>
+        <v>0.7705709545163791</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.449774967889097</v>
+        <v>-8.971542513040406</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.237073715692025</v>
       </c>
       <c r="E73" t="n">
-        <v>-10.94562612012155</v>
+        <v>-11.27364067551815</v>
       </c>
       <c r="F73" t="n">
-        <v>0.4977666402033331</v>
+        <v>0.6024134168172495</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.422503701069781</v>
+        <v>-8.930157743757709</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.10757011135627</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.08735029838323</v>
+        <v>-11.39305556973753</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6089202913295874</v>
+        <v>0.7025040720422453</v>
       </c>
       <c r="G74" t="n">
-        <v>-8.200039291183172</v>
+        <v>-8.703307412419122</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.99538323410817</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.15316530476859</v>
+        <v>-11.4504653176985</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4065394740021858</v>
+        <v>0.5304057511877561</v>
       </c>
       <c r="G75" t="n">
-        <v>-8.031855568878358</v>
+        <v>-8.531562583741358</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.908123611149311</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.51434266326328</v>
+        <v>-11.8197075347437</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5209792931417133</v>
+        <v>0.6376186191586509</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.794400472237973</v>
+        <v>-8.278344354479536</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.850466206163748</v>
       </c>
       <c r="E77" t="n">
-        <v>-11.8841871262392</v>
+        <v>-12.20162310093969</v>
       </c>
       <c r="F77" t="n">
-        <v>0.4245413904095591</v>
+        <v>0.5417305931458491</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.646025404132692</v>
+        <v>-8.095929298985766</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.823460691268768</v>
       </c>
       <c r="E78" t="n">
-        <v>-12.39066286167138</v>
+        <v>-12.7678521065415</v>
       </c>
       <c r="F78" t="n">
-        <v>0.3517481866095622</v>
+        <v>0.5178633250653826</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.385711146730652</v>
+        <v>-7.856863849095848</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.82418044974365</v>
       </c>
       <c r="E79" t="n">
-        <v>-12.85427439759974</v>
+        <v>-13.17858383129214</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2541581612273361</v>
+        <v>0.4062514433396678</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.344836977258783</v>
+        <v>-7.816316987195022</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.848477082243798</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.35551321189522</v>
+        <v>-13.69201157953326</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4445726137574</v>
+        <v>0.6439029245226794</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.028526940602681</v>
+        <v>-7.522499526821006</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.890652794549811</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.18792182657216</v>
+        <v>-14.54966215408906</v>
       </c>
       <c r="F81" t="n">
-        <v>0.3041969426884131</v>
+        <v>0.472341388084701</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.989511878134338</v>
+        <v>-7.495882875143777</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-1.945247363202904</v>
       </c>
       <c r="E82" t="n">
-        <v>-14.89311253453606</v>
+        <v>-15.2132324313191</v>
       </c>
       <c r="F82" t="n">
-        <v>0.353188339922152</v>
+        <v>0.5628353853267116</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.82432629318028</v>
+        <v>-7.343161162495043</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.008532499112464</v>
       </c>
       <c r="E83" t="n">
-        <v>-15.61723471240908</v>
+        <v>-15.97570196421554</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2046299795770864</v>
+        <v>0.4266623434699188</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.566067527324392</v>
+        <v>-7.090584456072463</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.079450545318221</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.69059406858515</v>
+        <v>-17.06608131408586</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1854366636111159</v>
+        <v>0.4356567555221846</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.359628096116055</v>
+        <v>-6.883909363412975</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.157559395179509</v>
       </c>
       <c r="E85" t="n">
-        <v>-17.49838915391965</v>
+        <v>-17.88411458024258</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2143182836799637</v>
+        <v>0.4881307053118226</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.085684751455779</v>
+        <v>-6.633519071564964</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.243083759943029</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.48426574250731</v>
+        <v>-18.90865273912186</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1715588225988863</v>
+        <v>0.4499666425281912</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.820919111087552</v>
+        <v>-6.332238998571164</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.34003381488018</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.51199842327996</v>
+        <v>-19.93069026815836</v>
       </c>
       <c r="F87" t="n">
-        <v>0.200296427336475</v>
+        <v>0.4843732143962473</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.39591677623944</v>
+        <v>-5.94013762076431</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.454415957400167</v>
       </c>
       <c r="E88" t="n">
-        <v>-20.82108469212131</v>
+        <v>-21.24562879636996</v>
       </c>
       <c r="F88" t="n">
-        <v>0.3115679091883049</v>
+        <v>0.5973859725260267</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.194583343139377</v>
+        <v>-5.760602871895721</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.592364195494365</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.3444264969675</v>
+        <v>-22.8056945106872</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1329365292157944</v>
+        <v>0.4171180546983004</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.839834305339968</v>
+        <v>-5.406207326273037</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.75816166106484</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.88127955834636</v>
+        <v>-24.31634987407976</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.0519922484235863</v>
+        <v>0.2350564913812578</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.609278852297171</v>
+        <v>-5.169079537203695</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.956805691829222</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.30111361692587</v>
+        <v>-25.73928680843276</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.09088948016635444</v>
+        <v>0.1934229683445688</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.626901091922135</v>
+        <v>-5.197450557461715</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.190212050169138</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.96797324552307</v>
+        <v>-27.44338094631182</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2580127259409877</v>
+        <v>0.03347430452720148</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.366613019125779</v>
+        <v>-4.901957282323958</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.454876775971468</v>
       </c>
       <c r="E93" t="n">
-        <v>-28.94403379033331</v>
+        <v>-29.39362346991818</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2610239555945847</v>
+        <v>0.05388520465745242</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.388149857300419</v>
+        <v>-4.936442408009064</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.738444083289539</v>
       </c>
       <c r="E94" t="n">
-        <v>-31.01989695970602</v>
+        <v>-31.53866636750658</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2352583036020678</v>
+        <v>0.05591451159791996</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.425462920399338</v>
+        <v>-4.998997430986831</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.025194736999381</v>
       </c>
       <c r="E95" t="n">
-        <v>-33.18760263351345</v>
+        <v>-33.71479039204124</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6337225405900007</v>
+        <v>-0.3158021506843666</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.583054969705194</v>
+        <v>-5.149598190575206</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.294623146899731</v>
       </c>
       <c r="E96" t="n">
-        <v>-35.29194156156692</v>
+        <v>-35.80618103258424</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.6897575967525883</v>
+        <v>-0.4346540758815558</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.771413930689107</v>
+        <v>-5.275035544101784</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.528857370510472</v>
       </c>
       <c r="E97" t="n">
-        <v>-37.58919557199323</v>
+        <v>-38.10000485966602</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.9922159770021439</v>
+        <v>-0.726664798463414</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.915010308257159</v>
+        <v>-5.471433179030517</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.712208308493198</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.04264075532133</v>
+        <v>-40.54711336841872</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.253774003174147</v>
+        <v>-1.017667413726459</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.219157595573297</v>
+        <v>-5.730503667662592</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.841035298085559</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.407280848474</v>
+        <v>-42.92133702725153</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.109889594943578</v>
+        <v>-0.9040131327574353</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.596359932746267</v>
+        <v>-6.101500253288584</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.912478639699855</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.90649672253677</v>
+        <v>-45.46462159267956</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.287133190814865</v>
+        <v>-1.040709866727897</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.782309910007302</v>
+        <v>-6.289008214587785</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.938539097628317</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.34988701728243</v>
+        <v>-47.93415721620013</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.479786427130865</v>
+        <v>-1.190957134139546</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.192269188890271</v>
+        <v>-6.661222384378057</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.922956972337992</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.6645145135797</v>
+        <v>-50.27787580941173</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.558065305821545</v>
+        <v>-1.277824563494398</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.520768159492019</v>
+        <v>-6.949397062227289</v>
       </c>
     </row>
   </sheetData>
